--- a/litreview-two-sector-model.xlsx
+++ b/litreview-two-sector-model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81804\Desktop\readingSummary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DB435C-361B-46BB-B2E1-1376AF05578F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78597EC1-3E3A-4E29-9522-8948EECD0AA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{F1D6E5AD-9F50-4A84-BC7F-605C0FCCE104}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Theoretical models on two-sector minimum wage</t>
     <phoneticPr fontId="1"/>
@@ -96,6 +96,14 @@
   </si>
   <si>
     <t>Prove that employment in the uncovered sector increases (?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Brown et al. (1982) The Effect of the MinimumWage on Employment and Unemployment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Basically a Gramlich-Mincer model with a markdown to lower the probability of getting a job in the covered sector</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -171,8 +179,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51D45A43-9181-44D4-8D11-907702B24996}" name="テーブル1" displayName="テーブル1" ref="A2:E6" totalsRowShown="0">
-  <autoFilter ref="A2:E6" xr:uid="{80C61756-757D-467F-BE1C-F207D30FE96F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51D45A43-9181-44D4-8D11-907702B24996}" name="テーブル1" displayName="テーブル1" ref="A2:E7" totalsRowShown="0">
+  <autoFilter ref="A2:E7" xr:uid="{80C61756-757D-467F-BE1C-F207D30FE96F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDF1837E-38A0-4BBF-8968-609E31162B1D}" name="Paper" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3E6B04F2-DF99-4E90-807F-B95339496310}" name="Setting/Context"/>
@@ -481,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A387CB-A315-450F-804B-1864C5563B0A}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -562,10 +570,21 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="159.30000000000001" x14ac:dyDescent="0.85">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
